--- a/biology/Médecine/Ischiopagus/Ischiopagus.xlsx
+++ b/biology/Médecine/Ischiopagus/Ischiopagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ischiopagus (du grec ischion, « partie inférieure de l’os iliaque » et pagos, « fixer, assembler » – prononcer iskiopagus) désigne un phénomène rarissime de malformation humaine. Il se produit lorsque deux fœtus jumeaux s'entremêlent, l'un d'eux cessant son développement. L'autre fœtus « absorbe » alors les membres et organes du jumeau dit parasite. Cela peut donner lieu à des êtres humains ayant quatre bras, plusieurs organes, deux colonnes vertébrales, etc.
 Cette malformation ressemble à la pathologie des frères siamois, mais celle-ci est plus grave car les chances de survie sont encore moindres : les nerfs peuvent s'entremêler, les os fusionner (comme la colonne vertébrale), les organes s'entrechoquer ou se parasiter, etc.
@@ -512,7 +524,9 @@
           <t>Origine du terme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le Dictionnaire de médecine, de chirurgie, de pharmacie, de l’art vétérinaire et des sciences qui s’y rapportent (13e édition refondue par Émile Littré et Ch Robin – Paris : J.B.Baillière, 1873) le terme « ischiopage » est le « nom donné par Isidore Geoffroy Saint-Hilaire aux monstres composés de deux individus qui ont un ombilic commun, et qui sont réunis par la région hypogastrique. »
 </t>
@@ -543,9 +557,11 @@
           <t>Cas de Lakshmi Tatma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Début novembre 2007, le Dr Sharan Patil, chirurgien orthopédiste indien à la tête d'une équipe d'une trentaine de personnes, a opéré Lakshmi Tatma une fillette indienne (prénommée Lakshmi en référence à la divinité hindoue de l'abondance qui a quatre bras) pour l'ablation de deux bras et deux jambes surnuméraires, à l'hôpital Sparsh de Bangalore. Si l'opération s'est bien déroulée, l'équipe médicale a dû faire face à de nombreuses difficultés : reconstruire la région pelvienne et sauver les organes, la fillette ayant également deux colonnes vertébrales fusionnées, deux reins (l'un “dans son corps” et l'autre “dans le corps du jumeau” ; le deuxième rein a d'ailleurs été transplanté durant l'opération), deux cavités stomacales, deux poitrines et des nerfs emmêlés[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Début novembre 2007, le Dr Sharan Patil, chirurgien orthopédiste indien à la tête d'une équipe d'une trentaine de personnes, a opéré Lakshmi Tatma une fillette indienne (prénommée Lakshmi en référence à la divinité hindoue de l'abondance qui a quatre bras) pour l'ablation de deux bras et deux jambes surnuméraires, à l'hôpital Sparsh de Bangalore. Si l'opération s'est bien déroulée, l'équipe médicale a dû faire face à de nombreuses difficultés : reconstruire la région pelvienne et sauver les organes, la fillette ayant également deux colonnes vertébrales fusionnées, deux reins (l'un “dans son corps” et l'autre “dans le corps du jumeau” ; le deuxième rein a d'ailleurs été transplanté durant l'opération), deux cavités stomacales, deux poitrines et des nerfs emmêlés.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Fictions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les jumeaux cannibales sont au cœur du film L'Amant double de François Ozon.</t>
         </is>
